--- a/data/pca/factorExposure/factorExposure_2013-01-29.xlsx
+++ b/data/pca/factorExposure/factorExposure_2013-01-29.xlsx
@@ -14,9 +14,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
   <si>
     <t>factor1</t>
+  </si>
+  <si>
+    <t>factor2</t>
+  </si>
+  <si>
+    <t>factor3</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -683,838 +689,1462 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B104"/>
+  <dimension ref="A1:D104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:2">
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B2">
-        <v>-0.001015203534111652</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
+        <v>0.001820105827298873</v>
+      </c>
+      <c r="C2">
+        <v>-0.03271434552539491</v>
+      </c>
+      <c r="D2">
+        <v>-0.005434022050873215</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
       <c r="A3" s="1" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:2">
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
       <c r="A4" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B4">
-        <v>-0.0002886797364484532</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
+        <v>-0.006326745450001137</v>
+      </c>
+      <c r="C4">
+        <v>-0.08470238553116299</v>
+      </c>
+      <c r="D4">
+        <v>-0.07889541997841527</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
       <c r="A5" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:2">
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
       <c r="A6" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B6">
-        <v>0.0003696199696509813</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
+        <v>-0.01420403680409721</v>
+      </c>
+      <c r="C6">
+        <v>-0.1139054849510215</v>
+      </c>
+      <c r="D6">
+        <v>-0.03394550466062898</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
       <c r="A7" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B7">
-        <v>-0.002108311920661889</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
+        <v>-0.005070237313696583</v>
+      </c>
+      <c r="C7">
+        <v>-0.05735270741367715</v>
+      </c>
+      <c r="D7">
+        <v>-0.03554651735564</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
       <c r="A8" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B8">
-        <v>0.0008695921592494703</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
+        <v>-0.005811221157832609</v>
+      </c>
+      <c r="C8">
+        <v>-0.03842019058506201</v>
+      </c>
+      <c r="D8">
+        <v>-0.04555070724823392</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
       <c r="A9" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B9">
-        <v>-0.003286959627422067</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
+        <v>-0.004464029328683257</v>
+      </c>
+      <c r="C9">
+        <v>-0.07079195895682118</v>
+      </c>
+      <c r="D9">
+        <v>-0.07119982397110221</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
       <c r="A10" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B10">
-        <v>0.002271952160147962</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
+        <v>-0.005362567890380377</v>
+      </c>
+      <c r="C10">
+        <v>-0.05728167984793001</v>
+      </c>
+      <c r="D10">
+        <v>0.1981564020732733</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
       <c r="A11" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B11">
-        <v>-0.002478443479411871</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
+        <v>-0.005767252715811933</v>
+      </c>
+      <c r="C11">
+        <v>-0.08067938610946462</v>
+      </c>
+      <c r="D11">
+        <v>-0.06021089536796647</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
       <c r="A12" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B12">
-        <v>0.000547995906290889</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2">
+        <v>-0.004068954296849892</v>
+      </c>
+      <c r="C12">
+        <v>-0.06427688829251577</v>
+      </c>
+      <c r="D12">
+        <v>-0.04739088300262392</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
       <c r="A13" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B13">
-        <v>0.002498573953784499</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2">
+        <v>-0.008773580299762711</v>
+      </c>
+      <c r="C13">
+        <v>-0.06627881881624501</v>
+      </c>
+      <c r="D13">
+        <v>-0.06329308788353348</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
       <c r="A14" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B14">
-        <v>-0.0009811747605459552</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2">
+        <v>-0.001617390868195991</v>
+      </c>
+      <c r="C14">
+        <v>-0.046184400490777</v>
+      </c>
+      <c r="D14">
+        <v>-0.007032221624651276</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
       <c r="A15" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B15">
-        <v>-0.0007843600680243665</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2">
+        <v>-0.00606224180109121</v>
+      </c>
+      <c r="C15">
+        <v>-0.04292359431581484</v>
+      </c>
+      <c r="D15">
+        <v>-0.02779471157768892</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
       <c r="A16" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B16">
-        <v>-0.0008590693069104447</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2">
+        <v>-0.00507587412347412</v>
+      </c>
+      <c r="C16">
+        <v>-0.06568717058543139</v>
+      </c>
+      <c r="D16">
+        <v>-0.04658615061321568</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
       <c r="A17" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:2">
+      <c r="C17">
+        <v>0</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
       <c r="A18" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:2">
+      <c r="C18">
+        <v>0</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
       <c r="A19" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:2">
+      <c r="C19">
+        <v>0</v>
+      </c>
+      <c r="D19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
       <c r="A20" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B20">
-        <v>4.987657109092715e-05</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2">
+        <v>-0.008900755872416772</v>
+      </c>
+      <c r="C20">
+        <v>-0.06540645713672504</v>
+      </c>
+      <c r="D20">
+        <v>-0.04306959458845924</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
       <c r="A21" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B21">
-        <v>0.005658959885766349</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2">
+        <v>-0.00999014598255708</v>
+      </c>
+      <c r="C21">
+        <v>-0.02132562655627996</v>
+      </c>
+      <c r="D21">
+        <v>-0.03738614509897118</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
       <c r="A22" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B22">
-        <v>-0.01666646940892913</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2">
+        <v>0.00674576633321556</v>
+      </c>
+      <c r="C22">
+        <v>-0.09492628838054876</v>
+      </c>
+      <c r="D22">
+        <v>-0.10787093860674</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
       <c r="A23" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B23">
-        <v>-0.01696827086664652</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2">
+        <v>0.006563994105123582</v>
+      </c>
+      <c r="C23">
+        <v>-0.09571782706630838</v>
+      </c>
+      <c r="D23">
+        <v>-0.1079549808624656</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
       <c r="A24" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B24">
-        <v>-0.001243436680441106</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2">
+        <v>-0.005453316189388943</v>
+      </c>
+      <c r="C24">
+        <v>-0.07652482203711483</v>
+      </c>
+      <c r="D24">
+        <v>-0.06096298572039604</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
       <c r="A25" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B25">
-        <v>-0.003859654058655349</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2">
+        <v>-0.002998937555529215</v>
+      </c>
+      <c r="C25">
+        <v>-0.07831218104984929</v>
+      </c>
+      <c r="D25">
+        <v>-0.06640391562320931</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
       <c r="A26" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B26">
-        <v>-0.004902336182864604</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2">
+        <v>-0.003662381830532598</v>
+      </c>
+      <c r="C26">
+        <v>-0.04176334723763638</v>
+      </c>
+      <c r="D26">
+        <v>-0.02096477804094858</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
       <c r="A27" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:2">
+      <c r="C27">
+        <v>0</v>
+      </c>
+      <c r="D27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
       <c r="A28" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B28">
-        <v>-0.006068080766278443</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2">
+        <v>0.001042276401445419</v>
+      </c>
+      <c r="C28">
+        <v>-0.1060983890681354</v>
+      </c>
+      <c r="D28">
+        <v>0.3157972857644203</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
       <c r="A29" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B29">
-        <v>-0.001041097403635644</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2">
+        <v>-0.003196718524493073</v>
+      </c>
+      <c r="C29">
+        <v>-0.04939423768277766</v>
+      </c>
+      <c r="D29">
+        <v>-0.004827523536368819</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
       <c r="A30" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B30">
-        <v>-0.003222445552959288</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2">
+        <v>-0.009499904065133133</v>
+      </c>
+      <c r="C30">
+        <v>-0.142459888974682</v>
+      </c>
+      <c r="D30">
+        <v>-0.09337455210777916</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
       <c r="A31" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B31">
-        <v>0.001113048073369161</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2">
+        <v>-0.00623741750025244</v>
+      </c>
+      <c r="C31">
+        <v>-0.04444940695724856</v>
+      </c>
+      <c r="D31">
+        <v>-0.03048540274165059</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
       <c r="A32" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B32">
-        <v>0.0006890999167503594</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2">
+        <v>-0.004149027967060803</v>
+      </c>
+      <c r="C32">
+        <v>-0.04173157348437623</v>
+      </c>
+      <c r="D32">
+        <v>-0.01935171022376996</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
       <c r="A33" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B33">
-        <v>-0.002454267769206622</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2">
+        <v>-0.008362154665327028</v>
+      </c>
+      <c r="C33">
+        <v>-0.08600442555618662</v>
+      </c>
+      <c r="D33">
+        <v>-0.06823601991080773</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
       <c r="A34" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B34">
-        <v>-0.004208364476291269</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2">
+        <v>-0.003977184452893745</v>
+      </c>
+      <c r="C34">
+        <v>-0.05803253082458198</v>
+      </c>
+      <c r="D34">
+        <v>-0.05322677032459677</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
       <c r="A35" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B35">
-        <v>-0.001803652682176833</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2">
+        <v>-0.004931240181676568</v>
+      </c>
+      <c r="C35">
+        <v>-0.04043283646652731</v>
+      </c>
+      <c r="D35">
+        <v>-0.01707919163495477</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
       <c r="A36" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B36">
-        <v>-0.003738426905656333</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2">
+        <v>0.001120281059432922</v>
+      </c>
+      <c r="C36">
+        <v>-0.02437664030969744</v>
+      </c>
+      <c r="D36">
+        <v>-0.02213672572097639</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
       <c r="A37" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:2">
+      <c r="C37">
+        <v>0</v>
+      </c>
+      <c r="D37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
       <c r="A38" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B38">
-        <v>0.002202540006359297</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2">
+        <v>-0.00952626084209922</v>
+      </c>
+      <c r="C38">
+        <v>-0.03559882585615247</v>
+      </c>
+      <c r="D38">
+        <v>-0.01494525670301726</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
       <c r="A39" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B39">
-        <v>-0.01160778304602089</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2">
+        <v>0.0005428189819761365</v>
+      </c>
+      <c r="C39">
+        <v>-0.1163568072364189</v>
+      </c>
+      <c r="D39">
+        <v>-0.0707465398483053</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
       <c r="A40" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B40">
-        <v>-0.009698344160881792</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2">
+        <v>-0.002618704023158278</v>
+      </c>
+      <c r="C40">
+        <v>-0.08836691782871745</v>
+      </c>
+      <c r="D40">
+        <v>-0.0184809699505099</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
       <c r="A41" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B41">
-        <v>-0.0001441627758706733</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2">
+        <v>-0.007232300466413352</v>
+      </c>
+      <c r="C41">
+        <v>-0.03794347009727733</v>
+      </c>
+      <c r="D41">
+        <v>-0.03328800938031863</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
       <c r="A42" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:2">
+      <c r="C42">
+        <v>0</v>
+      </c>
+      <c r="D42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4">
       <c r="A43" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B43">
-        <v>-0.002772182642788416</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2">
+        <v>-0.004018565841297722</v>
+      </c>
+      <c r="C43">
+        <v>-0.05323914750856539</v>
+      </c>
+      <c r="D43">
+        <v>-0.0227719097396333</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4">
       <c r="A44" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B44">
-        <v>-0.004182245717421955</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2">
+        <v>-0.003417884087583131</v>
+      </c>
+      <c r="C44">
+        <v>-0.1094668043409295</v>
+      </c>
+      <c r="D44">
+        <v>-0.06885134440389527</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4">
       <c r="A45" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:2">
+      <c r="C45">
+        <v>0</v>
+      </c>
+      <c r="D45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4">
       <c r="A46" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B46">
-        <v>-0.001190187026360619</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2">
+        <v>-0.002225627944435415</v>
+      </c>
+      <c r="C46">
+        <v>-0.03345085470832696</v>
+      </c>
+      <c r="D46">
+        <v>-0.032596039662192</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4">
       <c r="A47" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B47">
-        <v>0.0004112724312097884</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2">
+        <v>-0.002681224602428737</v>
+      </c>
+      <c r="C47">
+        <v>-0.03704071897073907</v>
+      </c>
+      <c r="D47">
+        <v>-0.0225252146205425</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4">
       <c r="A48" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B48">
-        <v>0.003743781213379929</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2">
+        <v>-0.006612949190340911</v>
+      </c>
+      <c r="C48">
+        <v>-0.03059537152686815</v>
+      </c>
+      <c r="D48">
+        <v>-0.03072004298115212</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4">
       <c r="A49" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B49">
-        <v>-0.01196683442854621</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2">
+        <v>-0.0153148975798259</v>
+      </c>
+      <c r="C49">
+        <v>-0.1840093065836456</v>
+      </c>
+      <c r="D49">
+        <v>-0.01115550045643513</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4">
       <c r="A50" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B50">
-        <v>-0.001533917844989071</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2">
+        <v>-0.003614996979695128</v>
+      </c>
+      <c r="C50">
+        <v>-0.04352089431938809</v>
+      </c>
+      <c r="D50">
+        <v>-0.03398546550290645</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4">
       <c r="A51" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B51">
-        <v>0.0009568506154892628</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2">
+        <v>-0.004492186382386947</v>
+      </c>
+      <c r="C51">
+        <v>-0.0272452797517436</v>
+      </c>
+      <c r="D51">
+        <v>-0.01832399110475492</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4">
       <c r="A52" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:2">
+      <c r="C52">
+        <v>0</v>
+      </c>
+      <c r="D52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4">
       <c r="A53" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B53">
-        <v>0.0008562062943078986</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2">
+        <v>-0.02083905477795576</v>
+      </c>
+      <c r="C53">
+        <v>-0.1693830564614104</v>
+      </c>
+      <c r="D53">
+        <v>-0.02862322307795105</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4">
       <c r="A54" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B54">
-        <v>0.001252624752563577</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2">
+        <v>-0.008708348353551021</v>
+      </c>
+      <c r="C54">
+        <v>-0.05514912466450538</v>
+      </c>
+      <c r="D54">
+        <v>-0.04227307469636466</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4">
       <c r="A55" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B55">
-        <v>-0.003829303183441855</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2">
+        <v>-0.009463092666126559</v>
+      </c>
+      <c r="C55">
+        <v>-0.1087458113759397</v>
+      </c>
+      <c r="D55">
+        <v>-0.03967110197419865</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4">
       <c r="A56" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B56">
-        <v>0.002900190655495722</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2">
+        <v>-0.02006831053863501</v>
+      </c>
+      <c r="C56">
+        <v>-0.1744957067642815</v>
+      </c>
+      <c r="D56">
+        <v>-0.02911144242403883</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4">
       <c r="A57" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:2">
+      <c r="C57">
+        <v>0</v>
+      </c>
+      <c r="D57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4">
       <c r="A58" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B58">
-        <v>-0.006773654188526408</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2">
+        <v>-0.01976080972362414</v>
+      </c>
+      <c r="C58">
+        <v>-0.111443520603404</v>
+      </c>
+      <c r="D58">
+        <v>-0.05241084318517767</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4">
       <c r="A59" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B59">
-        <v>-0.006882630378184817</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2">
+        <v>-0.009615131427082214</v>
+      </c>
+      <c r="C59">
+        <v>-0.1613455541271316</v>
+      </c>
+      <c r="D59">
+        <v>0.3157752589389326</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4">
       <c r="A60" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B60">
-        <v>-0.003942320255188691</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2">
+        <v>-0.02377903188397678</v>
+      </c>
+      <c r="C60">
+        <v>-0.2206933511684389</v>
+      </c>
+      <c r="D60">
+        <v>-0.03367026667218793</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4">
       <c r="A61" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B61">
-        <v>-0.0134077660675692</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2">
+        <v>0.00168168198903809</v>
+      </c>
+      <c r="C61">
+        <v>-0.09568985633159828</v>
+      </c>
+      <c r="D61">
+        <v>-0.0574476371553187</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4">
       <c r="A62" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B62">
-        <v>0.1637393701861521</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2">
+        <v>-0.1448270897316321</v>
+      </c>
+      <c r="C62">
+        <v>-0.09265504021148697</v>
+      </c>
+      <c r="D62">
+        <v>-0.04477103341176186</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4">
       <c r="A63" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B63">
-        <v>-0.0009052181147744698</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2">
+        <v>-0.006288987269424452</v>
+      </c>
+      <c r="C63">
+        <v>-0.05532580215977079</v>
+      </c>
+      <c r="D63">
+        <v>-0.02421560786330868</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4">
       <c r="A64" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B64">
-        <v>-0.0002222237986382427</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2">
+        <v>-0.01537957769853942</v>
+      </c>
+      <c r="C64">
+        <v>-0.1054298371347423</v>
+      </c>
+      <c r="D64">
+        <v>-0.05978204231597575</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4">
       <c r="A65" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B65">
-        <v>0.002887154358456003</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2">
+        <v>-0.01797298604187482</v>
+      </c>
+      <c r="C65">
+        <v>-0.1231959728445885</v>
+      </c>
+      <c r="D65">
+        <v>-0.01970671116563637</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4">
       <c r="A66" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B66">
-        <v>-0.007419538731628933</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2">
+        <v>-0.01312704839275542</v>
+      </c>
+      <c r="C66">
+        <v>-0.1602241829712569</v>
+      </c>
+      <c r="D66">
+        <v>-0.1119699625058779</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4">
       <c r="A67" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B67">
-        <v>0.003542492251546234</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2">
+        <v>-0.01570155451154382</v>
+      </c>
+      <c r="C67">
+        <v>-0.06652850332322309</v>
+      </c>
+      <c r="D67">
+        <v>-0.02469563655632633</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4">
       <c r="A68" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B68">
-        <v>-0.00658770675716491</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2">
+        <v>-0.0005239866422736551</v>
+      </c>
+      <c r="C68">
+        <v>-0.08594499138071689</v>
+      </c>
+      <c r="D68">
+        <v>0.2561467762769523</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4">
       <c r="A69" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B69">
-        <v>-0.002135656933429241</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2">
+        <v>-0.006203883799754364</v>
+      </c>
+      <c r="C69">
+        <v>-0.05078283142975822</v>
+      </c>
+      <c r="D69">
+        <v>-0.03719182431024663</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4">
       <c r="A70" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B70">
-        <v>-7.298824883354559e-05</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2">
+        <v>-0.001915681801945585</v>
+      </c>
+      <c r="C70">
+        <v>-0.002721902902251792</v>
+      </c>
+      <c r="D70">
+        <v>-0.00295630419565795</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4">
       <c r="A71" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B71">
-        <v>-0.0007388134557663121</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2">
+        <v>-0.005796699870253894</v>
+      </c>
+      <c r="C71">
+        <v>-0.09584559779765964</v>
+      </c>
+      <c r="D71">
+        <v>0.3058630704551348</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4">
       <c r="A72" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B72">
-        <v>-0.003824515035668954</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2">
+        <v>-0.01606066238255847</v>
+      </c>
+      <c r="C72">
+        <v>-0.1538707327515227</v>
+      </c>
+      <c r="D72">
+        <v>-0.02145860644001811</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4">
       <c r="A73" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B73">
-        <v>-0.01136959660622096</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2">
+        <v>-0.03074418040794727</v>
+      </c>
+      <c r="C73">
+        <v>-0.2787362682160672</v>
+      </c>
+      <c r="D73">
+        <v>-0.05222788780113085</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4">
       <c r="A74" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B74">
-        <v>-0.004554166057615583</v>
-      </c>
-    </row>
-    <row r="75" spans="1:2">
+        <v>-0.001947402760443001</v>
+      </c>
+      <c r="C74">
+        <v>-0.1046684102705824</v>
+      </c>
+      <c r="D74">
+        <v>-0.03611584457176834</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4">
       <c r="A75" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B75">
-        <v>-0.002560908593156967</v>
-      </c>
-    </row>
-    <row r="76" spans="1:2">
+        <v>-0.01097939770001538</v>
+      </c>
+      <c r="C75">
+        <v>-0.125597146791775</v>
+      </c>
+      <c r="D75">
+        <v>-0.02228507802095374</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4">
       <c r="A76" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B76">
-        <v>0.009535664822619656</v>
-      </c>
-    </row>
-    <row r="77" spans="1:2">
+        <v>-0.02175422057606339</v>
+      </c>
+      <c r="C76">
+        <v>-0.148912464488568</v>
+      </c>
+      <c r="D76">
+        <v>-0.06025765217936469</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4">
       <c r="A77" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B77">
-        <v>0.0008640626330348031</v>
-      </c>
-    </row>
-    <row r="78" spans="1:2">
+        <v>-0.02386369610143801</v>
+      </c>
+      <c r="C77">
+        <v>-0.1274401836372062</v>
+      </c>
+      <c r="D77">
+        <v>-0.09138957832051509</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4">
       <c r="A78" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B78">
-        <v>0.0004875125836562611</v>
-      </c>
-    </row>
-    <row r="79" spans="1:2">
+        <v>-0.01476732207155447</v>
+      </c>
+      <c r="C78">
+        <v>-0.09692947044702635</v>
+      </c>
+      <c r="D78">
+        <v>-0.0692806683695122</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4">
       <c r="A79" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B79">
-        <v>0.02294145519161224</v>
-      </c>
-    </row>
-    <row r="80" spans="1:2">
+        <v>-0.03763775839939942</v>
+      </c>
+      <c r="C79">
+        <v>-0.1560451279633412</v>
+      </c>
+      <c r="D79">
+        <v>-0.03334132864589243</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4">
       <c r="A80" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B80">
-        <v>0.006568876116788472</v>
-      </c>
-    </row>
-    <row r="81" spans="1:2">
+        <v>-0.01047181292152938</v>
+      </c>
+      <c r="C80">
+        <v>-0.04075609590847443</v>
+      </c>
+      <c r="D80">
+        <v>-0.02953842635531433</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4">
       <c r="A81" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B81">
-        <v>0.001328142799534646</v>
-      </c>
-    </row>
-    <row r="82" spans="1:2">
+        <v>-0.01534368168718746</v>
+      </c>
+      <c r="C81">
+        <v>-0.1273261774025691</v>
+      </c>
+      <c r="D81">
+        <v>-0.03882425942605178</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4">
       <c r="A82" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B82">
-        <v>0.005771406241705267</v>
-      </c>
-    </row>
-    <row r="83" spans="1:2">
+        <v>-0.01979569887280411</v>
+      </c>
+      <c r="C82">
+        <v>-0.1404086911663979</v>
+      </c>
+      <c r="D82">
+        <v>-0.04156228050463531</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4">
       <c r="A83" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B83">
-        <v>-0.008019448479925344</v>
-      </c>
-    </row>
-    <row r="84" spans="1:2">
+        <v>-0.01006554007235361</v>
+      </c>
+      <c r="C83">
+        <v>-0.05672720960352385</v>
+      </c>
+      <c r="D83">
+        <v>-0.05693620496545675</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4">
       <c r="A84" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B84">
-        <v>0.01339112006775697</v>
-      </c>
-    </row>
-    <row r="85" spans="1:2">
+        <v>-0.01169205950896995</v>
+      </c>
+      <c r="C84">
+        <v>-0.03676709435961403</v>
+      </c>
+      <c r="D84">
+        <v>0.0108966666893873</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4">
       <c r="A85" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B85">
-        <v>0.01373361567693629</v>
-      </c>
-    </row>
-    <row r="86" spans="1:2">
+        <v>-0.02824415829015831</v>
+      </c>
+      <c r="C85">
+        <v>-0.1243308027266279</v>
+      </c>
+      <c r="D85">
+        <v>-0.04424823306927012</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4">
       <c r="A86" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B86">
-        <v>-0.001709629099468141</v>
-      </c>
-    </row>
-    <row r="87" spans="1:2">
+        <v>-0.006087692769837854</v>
+      </c>
+      <c r="C86">
+        <v>-0.05141331670966692</v>
+      </c>
+      <c r="D86">
+        <v>-0.02039905654659226</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4">
       <c r="A87" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B87">
-        <v>-0.004094848845683642</v>
-      </c>
-    </row>
-    <row r="88" spans="1:2">
+        <v>-0.01021437914985656</v>
+      </c>
+      <c r="C87">
+        <v>-0.1297428311866257</v>
+      </c>
+      <c r="D87">
+        <v>-0.0708850142214963</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4">
       <c r="A88" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B88">
-        <v>-0.01170953535021971</v>
-      </c>
-    </row>
-    <row r="89" spans="1:2">
+        <v>0.002820511035935693</v>
+      </c>
+      <c r="C88">
+        <v>-0.06638884447225843</v>
+      </c>
+      <c r="D88">
+        <v>-0.01384696896005531</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4">
       <c r="A89" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B89">
-        <v>-0.01410193455979165</v>
-      </c>
-    </row>
-    <row r="90" spans="1:2">
+        <v>0.001422511435421141</v>
+      </c>
+      <c r="C89">
+        <v>-0.1465464843632335</v>
+      </c>
+      <c r="D89">
+        <v>0.3428134089845458</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4">
       <c r="A90" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B90">
-        <v>-0.002369120678078144</v>
-      </c>
-    </row>
-    <row r="91" spans="1:2">
+        <v>-0.006978179018673908</v>
+      </c>
+      <c r="C90">
+        <v>-0.1211078982834919</v>
+      </c>
+      <c r="D90">
+        <v>0.322741566129171</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4">
       <c r="A91" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B91">
-        <v>0.0006760713720583779</v>
-      </c>
-    </row>
-    <row r="92" spans="1:2">
+        <v>-0.0104541310848068</v>
+      </c>
+      <c r="C91">
+        <v>-0.1022659340181457</v>
+      </c>
+      <c r="D91">
+        <v>-0.01930030094348597</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4">
       <c r="A92" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B92">
-        <v>-0.008080995366091113</v>
-      </c>
-    </row>
-    <row r="93" spans="1:2">
+        <v>-0.0009232961546228104</v>
+      </c>
+      <c r="C92">
+        <v>-0.1358331435089642</v>
+      </c>
+      <c r="D92">
+        <v>0.3288496932483496</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4">
       <c r="A93" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B93">
-        <v>-0.0005130125031310546</v>
-      </c>
-    </row>
-    <row r="94" spans="1:2">
+        <v>-0.00481307297194714</v>
+      </c>
+      <c r="C93">
+        <v>-0.1045955738226832</v>
+      </c>
+      <c r="D93">
+        <v>0.305910965503732</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4">
       <c r="A94" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B94">
-        <v>0.003361243697544607</v>
-      </c>
-    </row>
-    <row r="95" spans="1:2">
+        <v>-0.02253853521180628</v>
+      </c>
+      <c r="C94">
+        <v>-0.1475575607317054</v>
+      </c>
+      <c r="D94">
+        <v>-0.05073549194935755</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4">
       <c r="A95" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B95">
-        <v>-0.004210345136913344</v>
-      </c>
-    </row>
-    <row r="96" spans="1:2">
+        <v>-0.01650609916711851</v>
+      </c>
+      <c r="C95">
+        <v>-0.1265179586409084</v>
+      </c>
+      <c r="D95">
+        <v>-0.05687837466443746</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4">
       <c r="A96" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:2">
+      <c r="C96">
+        <v>0</v>
+      </c>
+      <c r="D96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4">
       <c r="A97" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B97">
-        <v>7.461261262876334e-05</v>
-      </c>
-    </row>
-    <row r="98" spans="1:2">
+        <v>-0.03598567928697614</v>
+      </c>
+      <c r="C97">
+        <v>-0.2123143091347831</v>
+      </c>
+      <c r="D97">
+        <v>0.01189217466933002</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4">
       <c r="A98" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B98">
-        <v>-0.00290778845503802</v>
-      </c>
-    </row>
-    <row r="99" spans="1:2">
+        <v>-0.03664983091606545</v>
+      </c>
+      <c r="C98">
+        <v>-0.2492110222581802</v>
+      </c>
+      <c r="D98">
+        <v>-0.04695484553231472</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4">
       <c r="A99" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B99">
-        <v>0.9847827631435911</v>
-      </c>
-    </row>
-    <row r="100" spans="1:2">
+        <v>-0.9821923564726699</v>
+      </c>
+      <c r="C99">
+        <v>0.116499202290159</v>
+      </c>
+      <c r="D99">
+        <v>0.02742087367399451</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4">
       <c r="A100" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:2">
+      <c r="C100">
+        <v>0</v>
+      </c>
+      <c r="D100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4">
       <c r="A101" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B101">
-        <v>-0.0009466573492568073</v>
-      </c>
-    </row>
-    <row r="102" spans="1:2">
+        <v>-0.003234198833376287</v>
+      </c>
+      <c r="C101">
+        <v>-0.04957661128075163</v>
+      </c>
+      <c r="D101">
+        <v>-0.004940257124953013</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4">
       <c r="A102" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B102">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:2">
+      <c r="C102">
+        <v>0</v>
+      </c>
+      <c r="D102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4">
       <c r="A103" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:2">
+      <c r="C103">
+        <v>0</v>
+      </c>
+      <c r="D103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4">
       <c r="A104" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B104">
+        <v>0</v>
+      </c>
+      <c r="C104">
+        <v>0</v>
+      </c>
+      <c r="D104">
         <v>0</v>
       </c>
     </row>
